--- a/testCases/Applications/deleteApplication/delete_applications.xlsx
+++ b/testCases/Applications/deleteApplication/delete_applications.xlsx
@@ -24,10 +24,10 @@
     <t>Exp</t>
   </si>
   <si>
-    <t>cache-18</t>
+    <t>test-350</t>
   </si>
   <si>
-    <t>cache-19</t>
+    <t>test-357</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,13 +449,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5"/>
     </row>
